--- a/static/xlsxforms/Mentors_File.xlsx
+++ b/static/xlsxforms/Mentors_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,40 +40,7 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">unique_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">personal_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personal_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">occupation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annual_income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile_photo</t>
   </si>
 </sst>
 </file>
@@ -184,29 +151,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="28.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="26.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="24.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="35.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="33.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="32.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="35.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="28.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="35.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1013" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -230,39 +190,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
